--- a/Data/03 Output_data/all_negative_breaks.xlsx
+++ b/Data/03 Output_data/all_negative_breaks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b56c13e46b6a80f/Documents/GitHub/masters_thesis/Data/03 Output_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{474DE7C9-86FC-4A8E-AF2F-DFA1E6975017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5C70206-5BBD-45E9-A2F4-4A74DF4AF931}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{474DE7C9-86FC-4A8E-AF2F-DFA1E6975017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CA2052A-62A0-425E-83B5-AA2185EDC5A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{25F3852D-803B-49B0-9DA8-48A5EF09AFAD}"/>
+    <workbookView minimized="1" xWindow="2205" yWindow="2205" windowWidth="28800" windowHeight="15345" xr2:uid="{25F3852D-803B-49B0-9DA8-48A5EF09AFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="35">
   <si>
     <t>category</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Clear</t>
+  </si>
+  <si>
+    <t>Average of std.error</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -236,7 +239,7 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -251,28 +254,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003F5C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="8"/>
-          <bgColor rgb="FF003F5C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="8" tint="-0.24994659260841701"/>
@@ -281,17 +263,6 @@
         <patternFill>
           <fgColor theme="8" tint="-0.24994659260841701"/>
           <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003F5C"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="8"/>
-          <bgColor rgb="FF003F5C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -360,7 +331,22 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.646822" maxValue="-0.19413"/>
     </cacheField>
     <cacheField name="std.error" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8130999999999998E-2" maxValue="0.14754800000000001"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8130999999999998E-2" maxValue="0.14754800000000001" count="14">
+        <n v="0.103295"/>
+        <n v="0.11154600000000001"/>
+        <n v="0.14108000000000001"/>
+        <n v="0.1086211"/>
+        <n v="0.13120200000000001"/>
+        <n v="0.14754800000000001"/>
+        <n v="9.3889E-2"/>
+        <n v="6.6776000000000002E-2"/>
+        <n v="7.9404000000000002E-2"/>
+        <n v="3.8130999999999998E-2"/>
+        <n v="5.3254999999999997E-2"/>
+        <n v="5.7530999999999999E-2"/>
+        <n v="6.4544000000000004E-2"/>
+        <n v="7.1978E-2"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="t-stat" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-13.8957" maxValue="-3.4630999999999998"/>
@@ -404,7 +390,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.4303380000000001"/>
-    <n v="0.103295"/>
+    <x v="0"/>
     <n v="-13.847099999999999"/>
     <x v="0"/>
     <s v="***"/>
@@ -417,7 +403,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.549998"/>
-    <n v="0.11154600000000001"/>
+    <x v="1"/>
     <n v="-13.8957"/>
     <x v="0"/>
     <s v="***"/>
@@ -430,7 +416,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.646822"/>
-    <n v="0.14108000000000001"/>
+    <x v="2"/>
     <n v="-11.673"/>
     <x v="0"/>
     <s v="***"/>
@@ -443,7 +429,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.3905609999999999"/>
-    <n v="0.1086211"/>
+    <x v="3"/>
     <n v="-12.8019"/>
     <x v="0"/>
     <s v="***"/>
@@ -456,7 +442,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.4949030000000001"/>
-    <n v="0.13120200000000001"/>
+    <x v="4"/>
     <n v="-11.3939"/>
     <x v="0"/>
     <s v="***"/>
@@ -469,7 +455,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.536252"/>
-    <n v="0.14754800000000001"/>
+    <x v="5"/>
     <n v="-10.411899999999999"/>
     <x v="0"/>
     <s v="***"/>
@@ -482,7 +468,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.4303380000000001"/>
-    <n v="0.103295"/>
+    <x v="0"/>
     <n v="-13.847099999999999"/>
     <x v="0"/>
     <s v="***"/>
@@ -495,7 +481,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.549998"/>
-    <n v="0.11154600000000001"/>
+    <x v="1"/>
     <n v="-13.8957"/>
     <x v="0"/>
     <s v="***"/>
@@ -508,7 +494,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.646822"/>
-    <n v="0.14108000000000001"/>
+    <x v="2"/>
     <n v="-11.673"/>
     <x v="0"/>
     <s v="***"/>
@@ -521,7 +507,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.3905609999999999"/>
-    <n v="0.1086211"/>
+    <x v="3"/>
     <n v="-12.8019"/>
     <x v="0"/>
     <s v="***"/>
@@ -534,7 +520,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.4949030000000001"/>
-    <n v="0.13120200000000001"/>
+    <x v="4"/>
     <n v="-11.3939"/>
     <x v="0"/>
     <s v="***"/>
@@ -547,7 +533,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.536252"/>
-    <n v="0.14754800000000001"/>
+    <x v="5"/>
     <n v="-10.411899999999999"/>
     <x v="0"/>
     <s v="***"/>
@@ -560,7 +546,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.4303380000000001"/>
-    <n v="0.103295"/>
+    <x v="0"/>
     <n v="-13.847099999999999"/>
     <x v="0"/>
     <s v="***"/>
@@ -573,7 +559,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.549998"/>
-    <n v="0.11154600000000001"/>
+    <x v="1"/>
     <n v="-13.8957"/>
     <x v="0"/>
     <s v="***"/>
@@ -586,7 +572,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.646822"/>
-    <n v="0.14108000000000001"/>
+    <x v="2"/>
     <n v="-11.673"/>
     <x v="0"/>
     <s v="***"/>
@@ -599,7 +585,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.3905609999999999"/>
-    <n v="0.1086211"/>
+    <x v="3"/>
     <n v="-12.8019"/>
     <x v="0"/>
     <s v="***"/>
@@ -612,7 +598,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.4949030000000001"/>
-    <n v="0.13120200000000001"/>
+    <x v="4"/>
     <n v="-11.3939"/>
     <x v="0"/>
     <s v="***"/>
@@ -625,7 +611,7 @@
     <s v="Austria"/>
     <x v="0"/>
     <n v="-1.536252"/>
-    <n v="0.14754800000000001"/>
+    <x v="5"/>
     <n v="-10.411899999999999"/>
     <x v="0"/>
     <s v="***"/>
@@ -638,7 +624,7 @@
     <s v="Austria"/>
     <x v="1"/>
     <n v="-0.62773999999999996"/>
-    <n v="9.3889E-2"/>
+    <x v="6"/>
     <n v="-6.6859999999999999"/>
     <x v="1"/>
     <s v="***"/>
@@ -651,7 +637,7 @@
     <s v="Austria"/>
     <x v="1"/>
     <n v="-0.82193700000000003"/>
-    <n v="6.6776000000000002E-2"/>
+    <x v="7"/>
     <n v="-12.3089"/>
     <x v="0"/>
     <s v="***"/>
@@ -664,7 +650,7 @@
     <s v="Austria"/>
     <x v="1"/>
     <n v="-0.81506000000000001"/>
-    <n v="7.9404000000000002E-2"/>
+    <x v="8"/>
     <n v="-10.264799999999999"/>
     <x v="0"/>
     <s v="***"/>
@@ -677,7 +663,7 @@
     <s v="Austria"/>
     <x v="2"/>
     <n v="-0.19413"/>
-    <n v="3.8130999999999998E-2"/>
+    <x v="9"/>
     <n v="-5.0911"/>
     <x v="2"/>
     <s v="***"/>
@@ -690,7 +676,7 @@
     <s v="Austria"/>
     <x v="3"/>
     <n v="-0.21412800000000001"/>
-    <n v="5.3254999999999997E-2"/>
+    <x v="10"/>
     <n v="-4.0208000000000004"/>
     <x v="3"/>
     <s v="***"/>
@@ -703,7 +689,7 @@
     <s v="Austria"/>
     <x v="3"/>
     <n v="-0.22020799999999999"/>
-    <n v="5.7530999999999999E-2"/>
+    <x v="11"/>
     <n v="-3.8275999999999999"/>
     <x v="4"/>
     <s v="***"/>
@@ -716,7 +702,7 @@
     <s v="Austria"/>
     <x v="1"/>
     <n v="-0.25989099999999998"/>
-    <n v="6.4544000000000004E-2"/>
+    <x v="12"/>
     <n v="-4.0266000000000002"/>
     <x v="5"/>
     <s v="***"/>
@@ -729,7 +715,7 @@
     <s v="Austria"/>
     <x v="1"/>
     <n v="-0.24926999999999999"/>
-    <n v="7.1978E-2"/>
+    <x v="13"/>
     <n v="-3.4630999999999998"/>
     <x v="6"/>
     <s v="***"/>
@@ -739,8 +725,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA6825BA-CC59-4A85-81BE-E9C6A14215E7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N2:O19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA6825BA-CC59-4A85-81BE-E9C6A14215E7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N2:P19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -765,7 +751,25 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="15">
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="8">
@@ -847,11 +851,20 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Average of coef" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of std.error" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1162,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E80449A-C3D8-4594-960A-C572BC02A097}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,13 +1196,14 @@
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1264,26 +1278,29 @@
       <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="17"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,23 +1340,26 @@
       <c r="O3" s="11">
         <v>-0.88937414285714278</v>
       </c>
-      <c r="T3" s="14">
+      <c r="P3" s="11">
+        <v>9.0628578571428586E-2</v>
+      </c>
+      <c r="V3" s="14">
         <v>0.05</v>
       </c>
-      <c r="U3" s="14">
+      <c r="W3" s="14">
         <v>0.01</v>
       </c>
-      <c r="V3" s="14">
+      <c r="X3" s="14">
         <v>1E-3</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="Y3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="Z3" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1379,18 +1399,21 @@
       <c r="O4" s="11">
         <v>-1.5081456666666666</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="P4" s="11">
+        <v>0.12388201666666669</v>
+      </c>
+      <c r="S4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1430,21 +1453,18 @@
       <c r="O5" s="11">
         <v>-1.5081456666666666</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="P5" s="11">
+        <v>0.12388201666666669</v>
+      </c>
+      <c r="S5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="16">
+      <c r="T5" s="16">
         <v>2009</v>
       </c>
-      <c r="S5" s="12">
+      <c r="U5" s="12">
         <v>-1.5081456666666666</v>
       </c>
-      <c r="T5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" t="s">
-        <v>31</v>
-      </c>
       <c r="V5" t="s">
         <v>31</v>
       </c>
@@ -1454,8 +1474,14 @@
       <c r="X5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1495,29 +1521,32 @@
       <c r="O6" s="11">
         <v>-0.7549123333333333</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="P6" s="11">
+        <v>8.0022999999999997E-2</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="16">
+      <c r="T6" s="16">
         <v>2006</v>
       </c>
-      <c r="S6" s="12">
+      <c r="U6" s="12">
         <v>-0.7549123333333333</v>
       </c>
-      <c r="T6" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" t="s">
-        <v>31</v>
-      </c>
       <c r="V6" t="s">
         <v>31</v>
       </c>
       <c r="W6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1557,23 +1586,26 @@
       <c r="O7" s="11">
         <v>-0.7549123333333333</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="P7" s="11">
+        <v>8.0022999999999997E-2</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="16">
+      <c r="T7" s="16">
         <v>2015</v>
       </c>
-      <c r="S7" s="12">
+      <c r="U7" s="12">
         <v>-0.19413</v>
       </c>
-      <c r="T7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1613,26 +1645,29 @@
       <c r="O8" s="11">
         <v>-0.19413</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="P8" s="11">
+        <v>3.8130999999999998E-2</v>
+      </c>
+      <c r="S8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="16">
+      <c r="T8" s="16">
         <v>2006</v>
       </c>
-      <c r="S8" s="12">
+      <c r="U8" s="12">
         <v>-0.25458049999999999</v>
       </c>
-      <c r="T8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" t="s">
-        <v>31</v>
-      </c>
-      <c r="X8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1672,26 +1707,29 @@
       <c r="O9" s="11">
         <v>-0.19413</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="P9" s="11">
+        <v>3.8130999999999998E-2</v>
+      </c>
+      <c r="S9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="16">
+      <c r="T9" s="16">
         <v>2007</v>
       </c>
-      <c r="S9" s="12">
+      <c r="U9" s="12">
         <v>-0.217168</v>
       </c>
-      <c r="T9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>31</v>
       </c>
       <c r="W9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1731,18 +1769,21 @@
       <c r="O10" s="11">
         <v>-0.23587424999999998</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="P10" s="11">
+        <v>6.1827E-2</v>
+      </c>
+      <c r="S10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1782,21 +1823,18 @@
       <c r="O11" s="11">
         <v>-0.25458049999999999</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="P11" s="11">
+        <v>6.8261000000000002E-2</v>
+      </c>
+      <c r="S11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="11">
+      <c r="T11" s="11">
         <v>2009</v>
       </c>
-      <c r="S11" s="12">
+      <c r="U11" s="12">
         <v>-1.5081456666666666</v>
       </c>
-      <c r="T11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" t="s">
-        <v>31</v>
-      </c>
       <c r="V11" t="s">
         <v>31</v>
       </c>
@@ -1806,8 +1844,14 @@
       <c r="X11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1847,18 +1891,21 @@
       <c r="O12" s="11">
         <v>-0.217168</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="P12" s="11">
+        <v>5.5392999999999998E-2</v>
+      </c>
+      <c r="S12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1898,21 +1945,18 @@
       <c r="O13" s="11">
         <v>-1.5081456666666666</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="P13" s="11">
+        <v>0.12388201666666669</v>
+      </c>
+      <c r="S13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="11">
+      <c r="T13" s="11">
         <v>2009</v>
       </c>
-      <c r="S13" s="12">
+      <c r="U13" s="12">
         <v>-1.5081456666666666</v>
       </c>
-      <c r="T13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" t="s">
-        <v>31</v>
-      </c>
       <c r="V13" t="s">
         <v>31</v>
       </c>
@@ -1922,8 +1966,14 @@
       <c r="X13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1963,8 +2013,11 @@
       <c r="O14" s="11">
         <v>-1.5081456666666666</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P14" s="11">
+        <v>0.12388201666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2004,8 +2057,11 @@
       <c r="O15" s="11">
         <v>-1.5081456666666666</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P15" s="11">
+        <v>0.12388201666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2045,8 +2101,11 @@
       <c r="O16" s="11">
         <v>-1.5081456666666666</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="11">
+        <v>0.12388201666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2086,8 +2145,11 @@
       <c r="O17" s="11">
         <v>-1.5081456666666666</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="11">
+        <v>0.12388201666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -2127,8 +2189,11 @@
       <c r="O18" s="11">
         <v>-1.5081456666666666</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="11">
+        <v>0.12388201666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2168,8 +2233,11 @@
       <c r="O19" s="11">
         <v>-1.1749609999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="11">
+        <v>0.10597631923076925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -2204,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2239,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2309,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
@@ -2344,7 +2412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
@@ -2379,7 +2447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
@@ -2414,7 +2482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
@@ -2451,13 +2519,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K27" xr:uid="{5E80449A-C3D8-4594-960A-C572BC02A097}"/>
-  <conditionalFormatting sqref="T5:V9 T11:V11 T13:V13">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="V5:X9 V11:X11 V13:X13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W5:X9 W11:X11 W13:X13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="Y5:Z9 Y11:Z11 Y13:Z13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
